--- a/VIPData.xlsx
+++ b/VIPData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Текстиль Demsa</t>
   </si>
@@ -152,9 +152,6 @@
     <t xml:space="preserve">Банк-получатель  </t>
   </si>
   <si>
-    <t>1 900 000</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>Car battery Deka VL26 for Toyota</t>
   </si>
   <si>
-    <t>27 953.10</t>
+    <t>27953.10</t>
   </si>
   <si>
     <t>SGH-02122022</t>
@@ -230,16 +227,13 @@
     <t>UNIT 2 LG 1 MIRROR TOWER 61 MODY ROAD TSIM SHA TSUI KOWLOON, HONGKONG</t>
   </si>
   <si>
-    <t>69 209</t>
-  </si>
-  <si>
     <t>SAILUN 385/65R22.5 S696 160/158KL 20PR</t>
   </si>
   <si>
     <t>197.74</t>
   </si>
   <si>
-    <t>34 759.20</t>
+    <t>34759.20</t>
   </si>
   <si>
     <t>SAILUN 385/65R22.6 SFR1 160K 20PR</t>
@@ -248,16 +242,13 @@
     <t>204.47</t>
   </si>
   <si>
-    <t>28 918.70</t>
+    <t>28918.70</t>
   </si>
   <si>
     <t>ROADX 315/70R22.5 RT785 160J 18PR</t>
   </si>
   <si>
     <t>170.11</t>
-  </si>
-  <si>
-    <t>97 800</t>
   </si>
   <si>
     <t>AA-19012023-1</t>
@@ -311,31 +302,7 @@
     <t>Rubber chambers for passenger cars</t>
   </si>
   <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>476.15</t>
-    </r>
+    <t>62476.15</t>
   </si>
   <si>
     <t>ACS-06022023</t>
@@ -362,12 +329,6 @@
     <t>Baby car seat</t>
   </si>
   <si>
-    <t>68 000</t>
-  </si>
-  <si>
-    <t>21 900</t>
-  </si>
-  <si>
     <t>WD-03022023</t>
   </si>
   <si>
@@ -390,9 +351,6 @@
   </si>
   <si>
     <t>Color-Shadow Gray</t>
-  </si>
-  <si>
-    <t>20 900</t>
   </si>
   <si>
     <t>Colour - Licorice Black</t>
@@ -1540,7 +1498,7 @@
   <dimension ref="A2:AYY21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E13" sqref="E13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -3118,17 +3076,17 @@
       <c r="D12" s="17">
         <v>44811</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="22">
+        <v>1900000</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="H12" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="I12" s="22">
         <v>34000</v>
@@ -3137,28 +3095,28 @@
         <v>50</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="32">
         <v>44930</v>
       </c>
       <c r="M12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="O12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="P12" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="Q12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="R12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="5"/>
@@ -4508,46 +4466,46 @@
         <v>44811</v>
       </c>
       <c r="E13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="27" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="I13" s="26">
         <v>170</v>
       </c>
       <c r="J13" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="L13" s="32">
         <v>44897</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>62</v>
-      </c>
       <c r="P13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="R13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="5"/>
@@ -5896,47 +5854,47 @@
       <c r="D14" s="17">
         <v>44811</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>63</v>
+      <c r="E14" s="26">
+        <v>69209</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="26">
         <v>350</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="32">
         <v>44897</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="P14" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="S14" s="37"/>
       <c r="T14" s="5"/>
@@ -7286,46 +7244,46 @@
         <v>44811</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="26">
         <v>170</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="32">
         <v>44897</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="35" t="s">
-        <v>62</v>
-      </c>
       <c r="P15" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q15" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="R15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="5"/>
@@ -8675,46 +8633,46 @@
         <v>44811</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16" s="26">
         <v>170</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="32">
         <v>44897</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>62</v>
-      </c>
       <c r="P16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="Q16" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="R16" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="5"/>
@@ -10063,17 +10021,17 @@
       <c r="D17" s="17">
         <v>44811</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>72</v>
+      <c r="E17" s="26">
+        <v>97800</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="26">
         <v>19560</v>
@@ -10082,28 +10040,28 @@
         <v>5</v>
       </c>
       <c r="K17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="P17" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="35" t="s">
+      <c r="Q17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="R17" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="P17" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="S17" s="37"/>
       <c r="T17" s="5"/>
@@ -11453,46 +11411,46 @@
         <v>44811</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="26">
         <v>3271</v>
       </c>
       <c r="J18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="O18" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="P18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="S18" s="37"/>
       <c r="T18" s="5"/>
@@ -12841,17 +12799,17 @@
       <c r="D19" s="17">
         <v>44811</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>91</v>
+      <c r="E19" s="26">
+        <v>68000</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" s="26">
         <v>13600</v>
@@ -12860,28 +12818,28 @@
         <v>5</v>
       </c>
       <c r="K19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="P19" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="35" t="s">
+      <c r="Q19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="R19" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="P19" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="S19" s="37"/>
       <c r="T19" s="5"/>
@@ -14230,17 +14188,17 @@
       <c r="D20" s="17">
         <v>44811</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>92</v>
+      <c r="E20" s="26">
+        <v>21900</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I20" s="26">
         <v>3</v>
@@ -14249,28 +14207,28 @@
         <v>7300</v>
       </c>
       <c r="K20" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="S20" s="37"/>
       <c r="T20" s="5"/>
@@ -15619,17 +15577,17 @@
       <c r="D21" s="17">
         <v>44811</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>101</v>
+      <c r="E21" s="26">
+        <v>20900</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I21" s="26">
         <v>3</v>
@@ -15638,28 +15596,28 @@
         <v>6960</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="5"/>
@@ -17036,7 +16994,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -18423,7 +18381,7 @@
         <v>45269</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
